--- a/app/Exports/EmployeeExcel/ProductsExport.xlsx
+++ b/app/Exports/EmployeeExcel/ProductsExport.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd7bb87b22556716/Desktop/KCLYNE-AdvWeb/app/Exports/EmployeeExcel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_ED55AD67D0084E403202F44EDA5DB7EBA9BE7866" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EDAFBAD-8AD4-44A0-BBA2-16260ADF9495}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="345" windowWidth="18195" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -50,22 +32,28 @@
     <t>image_path</t>
   </si>
   <si>
+    <t>Daniel Davis</t>
+  </si>
+  <si>
+    <t>HAAAHHAHAAAHHAHAAAHHAHAAAHHAHAAAHHA</t>
+  </si>
+  <si>
+    <t>Brake Pad Nissin 2.jpg,Brake Pad Nissin.jpg</t>
+  </si>
+  <si>
     <t>Motul Oil</t>
   </si>
   <si>
     <t>Motul oil is known for its high-performance lubricants, offering exceptional engine protection and improved efficiency for a wide range of vehicles.</t>
   </si>
   <si>
-    <t>Motul Oil.jpg</t>
-  </si>
-  <si>
     <t>Yamalube Gear Oil</t>
   </si>
   <si>
     <t>Yamalube gear oil ensures smooth and reliable operation of your motorcycle's transmission and final drive, providing excellent wear protection.</t>
   </si>
   <si>
-    <t>Yamalube Gear Oil.png</t>
+    <t>Yamalube Gear Oil 2.png,Yamalube Gear Oil.png</t>
   </si>
   <si>
     <t>Side Mirror</t>
@@ -74,7 +62,7 @@
     <t>A high-quality side mirror enhances visibility and safety, allowing the driver to see what’s behind and beside the vehicle.</t>
   </si>
   <si>
-    <t>Side Mirror.png</t>
+    <t>Side Mirror 3.jpeg,Side Mirror.png</t>
   </si>
   <si>
     <t>Brake Pad Nissin</t>
@@ -83,16 +71,13 @@
     <t>Nissin brake pads deliver superior stopping power and durability, ensuring a safer and more controlled braking experience.</t>
   </si>
   <si>
-    <t>Brake Pad Nissin.jpg</t>
-  </si>
-  <si>
     <t>Brake Shoe RCB</t>
   </si>
   <si>
     <t>RCB brake shoes are designed for optimum performance and longevity, offering reliable stopping power for various motorcycle models.</t>
   </si>
   <si>
-    <t>Brake Shoe.jpg</t>
+    <t>Brake Shoe 2.jpg,Brake Shoe.jpg</t>
   </si>
   <si>
     <t>Yamaha Belt Mio</t>
@@ -101,7 +86,7 @@
     <t>The Yamaha belt for Mio scooters ensures efficient power transmission and longevity, maintaining smooth performance and reliability.</t>
   </si>
   <si>
-    <t>Yamaha Belt Mio.jpg</t>
+    <t>Yamaha Belt Mio 2.jpg,Yamaha Belt Mio.jpg</t>
   </si>
   <si>
     <t>Quantum Battery 5L</t>
@@ -110,7 +95,7 @@
     <t>The Quantum 5L battery provides robust and dependable power, ideal for starting your vehicle and supporting all its electrical systems.</t>
   </si>
   <si>
-    <t>Quantum Battery.jpg</t>
+    <t>Quantum Battery 2.jpg,Quantum Battery.jpg</t>
   </si>
   <si>
     <t>PIAA Horn</t>
@@ -119,7 +104,7 @@
     <t>PIAA horns produce a loud and clear sound, enhancing your vehicle's audible presence for improved safety on the road.</t>
   </si>
   <si>
-    <t>PIAA Horn.jpg</t>
+    <t>PIAA Horn 2.jpg,PIAA Horn.jpg</t>
   </si>
   <si>
     <t>Quick Tire 90/80-14</t>
@@ -128,7 +113,7 @@
     <t>Quick tires offer exceptional grip and durability, ensuring a smooth and safe ride in various driving conditions.</t>
   </si>
   <si>
-    <t>Quick Tire.jpg</t>
+    <t>Quick Tire 2.jpg,Quick Tire.jpg</t>
   </si>
   <si>
     <t>RCB shocks</t>
@@ -137,15 +122,20 @@
     <t>RCB shocks improve the handling and comfort of your motorcycle by providing superior damping and stability on various terrains.</t>
   </si>
   <si>
-    <t>RCB Shock.png</t>
+    <t>RCB Shock 2.jpg,RCB Shock.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -172,21 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -476,19 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -513,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>360</v>
+        <v>300.0</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -530,152 +512,177 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>360.0</v>
       </c>
       <c r="D3">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>80.0</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>150.0</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>150.0</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>350</v>
-      </c>
-      <c r="D6">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>350.0</v>
+      </c>
+      <c r="D7">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>520</v>
-      </c>
-      <c r="D7">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>520.0</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>1250</v>
-      </c>
-      <c r="D8">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>1250.0</v>
+      </c>
+      <c r="D9">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
-        <v>750</v>
-      </c>
-      <c r="D9">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>750.0</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>1100</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>1100.0</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>1200</v>
-      </c>
-      <c r="D11">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
+      <c r="C12">
+        <v>1200.0</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>